--- a/bh3/495954618298584386_2021-02-26_11-57-13.xlsx
+++ b/bh3/495954618298584386_2021-02-26_11-57-13.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4187610490</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-26 23:39:23</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44253.98568287037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-26 21:13:07</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44253.88410879629</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -665,10 +677,8 @@
           <t>4190290533</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-26 20:37:51</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44253.85961805555</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -741,10 +751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:42:52</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44253.82143518519</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -816,10 +824,8 @@
           <t>4189350937</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-26 19:15:23</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44253.80234953704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -891,10 +897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:30:14</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44253.77099537037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -958,10 +962,8 @@
           <t>4189350937</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:12:27</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44253.75864583333</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1037,10 +1039,8 @@
           <t>4189272493</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-26 18:01:26</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44253.75099537037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1112,10 +1112,8 @@
           <t>4189148008</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:40:34</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44253.73650462963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1187,10 +1185,8 @@
           <t>4188943121</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-26 17:02:56</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44253.71037037037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1262,10 +1258,8 @@
           <t>4188925623</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:58:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44253.70758101852</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1337,10 +1331,8 @@
           <t>4188845961</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:44:42</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44253.69770833333</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1404,10 +1396,8 @@
           <t>4188841219</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:43:49</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44253.69709490741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1475,10 +1465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:37:27</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44253.69267361111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1542,10 +1530,8 @@
           <t>4188802409</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:36:52</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44253.69226851852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1613,10 +1599,8 @@
           <t>4188725741</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:21:05</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44253.68130787037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1680,10 +1664,8 @@
           <t>4188714923</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-26 16:20:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44253.68094907407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1747,10 +1729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:37:02</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44253.65071759259</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1826,10 +1806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:22:45</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44253.64079861111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1905,10 +1883,8 @@
           <t>4188436626</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-26 15:19:41</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44253.63866898148</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1976,10 +1952,8 @@
           <t>4188099879</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-26 14:06:05</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44253.58755787037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2055,10 +2029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-26 14:01:57</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44253.5846875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2122,10 +2094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-26 14:01:08</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44253.58412037037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2201,10 +2171,8 @@
           <t>4188068167</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:59:27</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44253.58295138889</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2272,10 +2240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:58:40</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44253.5824074074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2343,10 +2309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:45:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44253.57342592593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2422,10 +2386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:42:20</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44253.57106481482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2497,10 +2459,8 @@
           <t>4187966132</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:37:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44253.56791666667</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2576,10 +2536,8 @@
           <t>4187947479</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:34:34</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44253.5656712963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2643,10 +2601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:31:16</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44253.56337962963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2714,10 +2670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:25:43</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44253.55952546297</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2785,10 +2739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:16:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44253.55282407408</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2864,10 +2816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:14:44</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44253.55189814815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2944,10 +2894,8 @@
           <t>4187829348</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:12:25</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44253.55028935185</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3015,10 +2963,8 @@
           <t>4187428387</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:08:24</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44253.5475</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3089,10 +3035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:05:30</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44253.54548611111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3164,10 +3108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:03:33</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44253.54413194444</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3239,10 +3181,8 @@
           <t>4187769287</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-26 13:01:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44253.54241898148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3318,10 +3258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:58:25</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44253.54056712963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3393,10 +3331,8 @@
           <t>4187579628</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:57:33</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44253.53996527778</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3472,10 +3408,8 @@
           <t>4187655046</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:57:24</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44253.53986111111</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3551,10 +3485,8 @@
           <t>4187673071</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:56:32</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44253.53925925926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3626,10 +3558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:56:10</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44253.53900462963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3701,10 +3631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:53:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44253.53703703704</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3777,10 +3705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:53:04</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44253.53685185185</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3848,10 +3774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:49:47</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44253.53457175926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3919,10 +3843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:47:21</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44253.53288194445</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3986,10 +3908,8 @@
           <t>4187673931</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:44:06</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44253.530625</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4057,10 +3977,8 @@
           <t>4187673071</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:43:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44253.53028935185</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4132,10 +4050,8 @@
           <t>4187670763</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:42:23</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44253.52943287037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4199,10 +4115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:42:17</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44253.52936342593</v>
       </c>
       <c r="I52" t="n">
         <v>8</v>
@@ -4270,10 +4184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:40:26</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44253.5280787037</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4342,10 +4254,8 @@
           <t>4187655046</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:39:18</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44253.52729166667</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4421,10 +4331,8 @@
           <t>4187643446</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:38:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44253.52666666666</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4496,10 +4404,8 @@
           <t>4187634961</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:38:03</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44253.52642361111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4575,10 +4481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:36:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44253.52503472222</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4638,10 +4542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:34:17</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44253.52380787037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4717,10 +4619,8 @@
           <t>4187610490</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:31:35</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44253.52193287037</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
@@ -4788,10 +4688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:31:08</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44253.52162037037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4863,10 +4761,8 @@
           <t>4187599371</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:31:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44253.5215625</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4938,10 +4834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:30:32</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44253.52120370371</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5017,10 +4911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:29:35</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44253.52054398148</v>
       </c>
       <c r="I63" t="n">
         <v>22</v>
@@ -5092,10 +4984,8 @@
           <t>4187579628</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:28:17</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44253.5196412037</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5171,10 +5061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:27:00</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44253.51875</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5242,10 +5130,8 @@
           <t>4187580668</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:26:42</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44253.51854166666</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5309,10 +5195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:23:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44253.51657407408</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5388,10 +5272,8 @@
           <t>4187543294</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:22:08</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44253.51537037037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5467,10 +5349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:18:31</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44253.5128587963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5538,10 +5418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:18:19</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44253.5127199074</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5617,10 +5495,8 @@
           <t>4187523294</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:17:57</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44253.51246527778</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5696,10 +5572,8 @@
           <t>4187509855</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:16:14</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44253.51127314815</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5775,10 +5649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:16:06</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44253.51118055556</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5854,10 +5726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:15:27</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44253.51072916666</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5925,10 +5795,8 @@
           <t>4187507271</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:14:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44253.51037037037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6004,10 +5872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:14:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44253.51010416666</v>
       </c>
       <c r="I76" t="n">
         <v>153</v>
@@ -6075,10 +5941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:10:00</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44253.50694444445</v>
       </c>
       <c r="I77" t="n">
         <v>16</v>
@@ -6154,10 +6018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:09:08</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44253.50634259259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6221,10 +6083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:09:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44253.50633101852</v>
       </c>
       <c r="I79" t="n">
         <v>61</v>
@@ -6300,10 +6160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:08:21</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44253.50579861111</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6371,10 +6229,8 @@
           <t>4187457353</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:06:42</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44253.50465277778</v>
       </c>
       <c r="I81" t="n">
         <v>24</v>
@@ -6442,10 +6298,8 @@
           <t>4187457320</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:06:41</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44253.5046412037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6521,10 +6375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:06:09</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44253.50427083333</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6588,10 +6440,8 @@
           <t>4187449572</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:06:09</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44253.50427083333</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6667,10 +6517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:05:50</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44253.50405092593</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6730,10 +6578,8 @@
           <t>4187455143</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:05:38</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44253.50391203703</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
@@ -6809,10 +6655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:04:59</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44253.50346064815</v>
       </c>
       <c r="I87" t="n">
         <v>2</v>
@@ -6888,10 +6732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:04:52</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44253.50337962963</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6963,10 +6805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:04:45</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44253.50329861111</v>
       </c>
       <c r="I89" t="n">
         <v>8</v>
@@ -7034,10 +6874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:04:00</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44253.50277777778</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7097,10 +6935,8 @@
           <t>4187428387</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:03:39</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44253.50253472223</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7172,10 +7008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:03:33</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44253.50246527778</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7247,10 +7081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:02:50</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44253.50196759259</v>
       </c>
       <c r="I93" t="n">
         <v>5</v>
@@ -7318,10 +7150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:02:40</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44253.50185185186</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7381,10 +7211,8 @@
           <t>4187428387</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:02:22</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44253.50164351852</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7452,10 +7280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:01:20</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44253.50092592592</v>
       </c>
       <c r="I96" t="n">
         <v>15</v>
@@ -7531,10 +7357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-26 12:01:12</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44253.50083333333</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7598,10 +7422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:59:49</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44253.49987268518</v>
       </c>
       <c r="I98" t="n">
         <v>3</v>
@@ -7673,10 +7495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:59:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44253.49972222222</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7744,10 +7564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:59</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44253.49929398148</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7815,10 +7633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:55</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44253.49924768518</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7886,10 +7702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44253.49917824074</v>
       </c>
       <c r="I102" t="n">
         <v>490</v>
@@ -7961,10 +7775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:31</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44253.49896990741</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8028,10 +7840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44253.49885416667</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8103,10 +7913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:58:18</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44253.49881944444</v>
       </c>
       <c r="I105" t="n">
         <v>50</v>
@@ -8175,10 +7983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:57:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44253.49851851852</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8254,10 +8060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:57:40</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44253.49837962963</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8333,10 +8137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-26 11:57:39</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44253.49836805555</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
